--- a/output/test/fitness_history_test_test.xlsx
+++ b/output/test/fitness_history_test_test.xlsx
@@ -399,35 +399,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
       <c r="C2">
-        <v>14.515</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3">
-        <v>12.79</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>9.945</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>5.22</v>
+        <v>5.375</v>
       </c>
     </row>
   </sheetData>
